--- a/server/城市节点报名表.xlsx
+++ b/server/城市节点报名表.xlsx
@@ -1204,7 +1204,9 @@
     <col min="3" max="3" width="15.6964285714286" style="1" customWidth="1"/>
     <col min="4" max="4" width="80.0535714285714" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.1875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.79464285714286" style="1"/>
+    <col min="6" max="8" width="8.79464285714286" style="1"/>
+    <col min="9" max="9" width="12.7946428571429" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.79464285714286" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.05" customHeight="1" spans="1:4">
